--- a/raw_data/20200818_saline/20200818_Sensor1_Test_88.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_88.xlsx
@@ -1,1686 +1,2102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB2C2A-0C4F-4C6B-8C77-CC697ECDBD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>78489.660430</v>
+        <v>78489.660430000004</v>
       </c>
       <c r="B2" s="1">
-        <v>21.802683</v>
+        <v>21.802682999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>903.548000</v>
+        <v>903.548</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.855000</v>
+        <v>-198.85499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>78500.039723</v>
+        <v>78500.039722999994</v>
       </c>
       <c r="G2" s="1">
         <v>21.805567</v>
       </c>
       <c r="H2" s="1">
-        <v>922.299000</v>
+        <v>922.29899999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.016000</v>
+        <v>-169.01599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>78510.501807</v>
+        <v>78510.501806999993</v>
       </c>
       <c r="L2" s="1">
-        <v>21.808473</v>
+        <v>21.808472999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>946.126000</v>
+        <v>946.12599999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.966000</v>
+        <v>-120.96599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>78521.036336</v>
+        <v>78521.036336000005</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.811399</v>
+        <v>21.811399000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>953.297000</v>
+        <v>953.29700000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.647000</v>
+        <v>-104.64700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>78531.284674</v>
+        <v>78531.284673999995</v>
       </c>
       <c r="V2" s="1">
-        <v>21.814246</v>
+        <v>21.814246000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>960.446000</v>
+        <v>960.44600000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.564300</v>
+        <v>-89.564300000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>78541.705125</v>
+        <v>78541.705124999993</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.817140</v>
+        <v>21.817139999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>967.902000</v>
+        <v>967.90200000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.806000</v>
+        <v>-77.805999999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>78552.209895</v>
+        <v>78552.209895000007</v>
       </c>
       <c r="AF2" s="1">
         <v>21.820058</v>
       </c>
       <c r="AG2" s="1">
-        <v>972.787000</v>
+        <v>972.78700000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.415900</v>
+        <v>-75.415899999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>78562.631833</v>
+        <v>78562.631833000007</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.822953</v>
+        <v>21.822952999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>980.211000</v>
+        <v>980.21100000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.836100</v>
+        <v>-79.836100000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>78573.220464</v>
+        <v>78573.220463999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.825895</v>
+        <v>21.825894999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.359000</v>
+        <v>988.35900000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.190900</v>
+        <v>-91.190899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>78583.814509</v>
+        <v>78583.814509000003</v>
       </c>
       <c r="AU2" s="1">
         <v>21.828837</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.226000</v>
+        <v>998.226</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.572000</v>
+        <v>-108.572</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>78595.720941</v>
+        <v>78595.720941000007</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.832145</v>
+        <v>21.832145000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.520000</v>
+        <v>1006.52</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.058000</v>
+        <v>-124.05800000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>78606.677072</v>
+        <v>78606.677072000006</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.835188</v>
+        <v>21.835187999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1045.300000</v>
+        <v>1045.3</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.267000</v>
+        <v>-195.267</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>78617.459137</v>
+        <v>78617.459136999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.838183</v>
+        <v>21.838183000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1112.320000</v>
+        <v>1112.32</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.368000</v>
+        <v>-310.36799999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>78628.190050</v>
+        <v>78628.190050000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.841164</v>
+        <v>21.841163999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1221.010000</v>
+        <v>1221.01</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.493000</v>
+        <v>-490.49299999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>78638.508821</v>
+        <v>78638.508820999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.844030</v>
+        <v>21.84403</v>
       </c>
       <c r="BU2" s="1">
-        <v>1342.640000</v>
+        <v>1342.64</v>
       </c>
       <c r="BV2" s="1">
-        <v>-687.284000</v>
+        <v>-687.28399999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>78649.652966</v>
+        <v>78649.652965999994</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.847126</v>
+        <v>21.847125999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1477.770000</v>
+        <v>1477.77</v>
       </c>
       <c r="CA2" s="1">
-        <v>-895.288000</v>
+        <v>-895.28800000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>78661.210215</v>
+        <v>78661.210214999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.850336</v>
+        <v>21.850335999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1827.640000</v>
+        <v>1827.64</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1389.150000</v>
+        <v>-1389.15</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>78490.006618</v>
+        <v>78490.006617999999</v>
       </c>
       <c r="B3" s="1">
-        <v>21.802780</v>
+        <v>21.802779999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>903.715000</v>
+        <v>903.71500000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.918000</v>
+        <v>-198.91800000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>78500.406267</v>
+        <v>78500.406266999998</v>
       </c>
       <c r="G3" s="1">
-        <v>21.805668</v>
+        <v>21.805668000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>921.753000</v>
+        <v>921.75300000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.293000</v>
+        <v>-169.29300000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>78510.884222</v>
+        <v>78510.884221999993</v>
       </c>
       <c r="L3" s="1">
-        <v>21.808579</v>
+        <v>21.808579000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>946.047000</v>
+        <v>946.04700000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.908000</v>
+        <v>-120.908</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>78521.419776</v>
+        <v>78521.419775999995</v>
       </c>
       <c r="Q3" s="1">
         <v>21.811505</v>
       </c>
       <c r="R3" s="1">
-        <v>953.315000</v>
+        <v>953.31500000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.597000</v>
+        <v>-104.59699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>78532.001889</v>
+        <v>78532.001889000006</v>
       </c>
       <c r="V3" s="1">
-        <v>21.814445</v>
+        <v>21.814444999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>960.359000</v>
+        <v>960.35900000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.524600</v>
+        <v>-89.524600000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>78542.053844</v>
+        <v>78542.053843999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.817237</v>
+        <v>21.817236999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>967.964000</v>
+        <v>967.96400000000006</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.858200</v>
+        <v>-77.858199999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>78552.554118</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.820154</v>
+        <v>21.820153999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>972.695000</v>
+        <v>972.69500000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.251600</v>
+        <v>-75.251599999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>78563.012761</v>
+        <v>78563.012761000005</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.823059</v>
+        <v>21.823059000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>980.218000</v>
+        <v>980.21799999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.849800</v>
+        <v>-79.849800000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>78573.752140</v>
+        <v>78573.752139999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.826042</v>
+        <v>21.826042000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.379000</v>
+        <v>988.37900000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.168900</v>
+        <v>-91.168899999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>78584.527008</v>
+        <v>78584.527008000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.829035</v>
+        <v>21.829035000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.244000</v>
+        <v>998.24400000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.553000</v>
+        <v>-108.553</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>78596.128158</v>
+        <v>78596.128158000007</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.832258</v>
+        <v>21.832257999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.530000</v>
+        <v>1006.53</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.059000</v>
+        <v>-124.059</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>78607.106606</v>
+        <v>78607.106606000001</v>
       </c>
       <c r="BE3" s="1">
         <v>21.835307</v>
       </c>
       <c r="BF3" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.263000</v>
+        <v>-195.26300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>78617.836066</v>
+        <v>78617.836066000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.838288</v>
+        <v>21.838287999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1112.290000</v>
+        <v>1112.29</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.371000</v>
+        <v>-310.37099999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>78628.595282</v>
+        <v>78628.595281999995</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.841276</v>
+        <v>21.841276000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1221.000000</v>
+        <v>1221</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.516000</v>
+        <v>-490.51600000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>78638.976548</v>
+        <v>78638.976548000006</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.844160</v>
+        <v>21.844159999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1342.650000</v>
+        <v>1342.65</v>
       </c>
       <c r="BV3" s="1">
-        <v>-687.292000</v>
+        <v>-687.29200000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>78650.125622</v>
+        <v>78650.125622000007</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.847257</v>
+        <v>21.847256999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1477.670000</v>
+        <v>1477.67</v>
       </c>
       <c r="CA3" s="1">
-        <v>-895.408000</v>
+        <v>-895.40800000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>78661.516743</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.850421</v>
+        <v>21.850421000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1827.370000</v>
+        <v>1827.37</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1388.500000</v>
+        <v>-1388.5</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>78490.356298</v>
+        <v>78490.356297999999</v>
       </c>
       <c r="B4" s="1">
-        <v>21.802877</v>
+        <v>21.802876999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>903.677000</v>
+        <v>903.67700000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.876000</v>
+        <v>-198.876</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>78500.747483</v>
+        <v>78500.747482999999</v>
       </c>
       <c r="G4" s="1">
-        <v>21.805763</v>
+        <v>21.805762999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>921.559000</v>
+        <v>921.55899999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.920000</v>
+        <v>-168.92</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>78511.577132</v>
+        <v>78511.577132000006</v>
       </c>
       <c r="L4" s="1">
         <v>21.808771</v>
       </c>
       <c r="M4" s="1">
-        <v>946.095000</v>
+        <v>946.09500000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.825000</v>
+        <v>-120.825</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>78522.121583</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.811700</v>
+        <v>21.811699999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>953.350000</v>
+        <v>953.35</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.619000</v>
+        <v>-104.619</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>78532.347105</v>
+        <v>78532.347104999993</v>
       </c>
       <c r="V4" s="1">
-        <v>21.814541</v>
+        <v>21.814540999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>960.374000</v>
+        <v>960.37400000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.614800</v>
+        <v>-89.614800000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>78542.406500</v>
+        <v>78542.406499999997</v>
       </c>
       <c r="AA4" s="1">
         <v>21.817335</v>
       </c>
       <c r="AB4" s="1">
-        <v>967.886000</v>
+        <v>967.88599999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.759500</v>
+        <v>-77.759500000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>78552.896425</v>
+        <v>78552.896424999999</v>
       </c>
       <c r="AF4" s="1">
         <v>21.820249</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.907000</v>
+        <v>972.90700000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.486800</v>
+        <v>-75.486800000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>78563.675912</v>
+        <v>78563.675912000006</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.823243</v>
+        <v>21.823243000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>980.211000</v>
+        <v>980.21100000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.839600</v>
+        <v>-79.839600000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>78574.211930</v>
+        <v>78574.211930000005</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.826170</v>
+        <v>21.826170000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.373000</v>
+        <v>988.37300000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.157500</v>
+        <v>-91.157499999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>78584.980571</v>
+        <v>78584.980570999993</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.829161</v>
+        <v>21.829160999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.242000</v>
+        <v>998.24199999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.551000</v>
+        <v>-108.551</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>78596.485774</v>
+        <v>78596.485774000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.832357</v>
+        <v>21.832356999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.530000</v>
+        <v>1006.53</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.060000</v>
+        <v>-124.06</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>78607.467197</v>
+        <v>78607.467197000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.835408</v>
+        <v>21.835408000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.269000</v>
+        <v>-195.26900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>78618.210047</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.838392</v>
+        <v>21.838391999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1112.270000</v>
+        <v>1112.27</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.351000</v>
+        <v>-310.351</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>78629.016881</v>
+        <v>78629.016881000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.841394</v>
+        <v>21.841394000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1220.970000</v>
+        <v>1220.97</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.519000</v>
+        <v>-490.51900000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>78639.408595</v>
+        <v>78639.408595000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.844280</v>
+        <v>21.844280000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1342.700000</v>
+        <v>1342.7</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.315000</v>
+        <v>-687.31500000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>78650.557141</v>
+        <v>78650.557140999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.847377</v>
+        <v>21.847377000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1477.720000</v>
+        <v>1477.72</v>
       </c>
       <c r="CA4" s="1">
-        <v>-895.471000</v>
+        <v>-895.471</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>78662.050469</v>
+        <v>78662.050468999994</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.850570</v>
+        <v>21.850570000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.970000</v>
+        <v>1828.97</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1388.990000</v>
+        <v>-1388.99</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>78491.037303</v>
+        <v>78491.037303000005</v>
       </c>
       <c r="B5" s="1">
-        <v>21.803066</v>
+        <v>21.803066000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>903.767000</v>
+        <v>903.76700000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.850000</v>
+        <v>-198.85</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>78501.436960</v>
+        <v>78501.436960000006</v>
       </c>
       <c r="G5" s="1">
-        <v>21.805955</v>
+        <v>21.805955000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>921.505000</v>
+        <v>921.505</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.988000</v>
+        <v>-168.988</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>78511.923836</v>
+        <v>78511.923836000002</v>
       </c>
       <c r="L5" s="1">
         <v>21.808868</v>
       </c>
       <c r="M5" s="1">
-        <v>946.109000</v>
+        <v>946.10900000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.834000</v>
+        <v>-120.834</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>78522.470767</v>
+        <v>78522.470767000006</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.811797</v>
+        <v>21.811796999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>953.353000</v>
+        <v>953.35299999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.648000</v>
+        <v>-104.648</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>78532.688353</v>
+        <v>78532.688353000005</v>
       </c>
       <c r="V5" s="1">
         <v>21.814636</v>
       </c>
       <c r="W5" s="1">
-        <v>960.276000</v>
+        <v>960.27599999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.530500</v>
+        <v>-89.530500000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>78543.056226</v>
+        <v>78543.056226000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.817516</v>
+        <v>21.817516000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>967.842000</v>
+        <v>967.84199999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.805100</v>
+        <v>-77.805099999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>78553.561989</v>
+        <v>78553.561988999994</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.820434</v>
+        <v>21.820433999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>972.784000</v>
+        <v>972.78399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.462600</v>
+        <v>-75.462599999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>78564.053402</v>
+        <v>78564.053402000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.823348</v>
+        <v>21.823347999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>980.192000</v>
+        <v>980.19200000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.845400</v>
+        <v>-79.845399999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>78574.320591</v>
+        <v>78574.320590999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.826200</v>
+        <v>21.8262</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.386000</v>
+        <v>988.38599999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.173300</v>
+        <v>-91.173299999999998</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>78585.348107</v>
+        <v>78585.348106999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.829263</v>
+        <v>21.829263000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.230000</v>
+        <v>998.23</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.559000</v>
+        <v>-108.559</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>78596.846401</v>
+        <v>78596.846401000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.832457</v>
+        <v>21.832457000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.049000</v>
+        <v>-124.04900000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>78608.074946</v>
+        <v>78608.074945999993</v>
       </c>
       <c r="BE5" s="1">
         <v>21.835576</v>
       </c>
       <c r="BF5" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.259000</v>
+        <v>-195.25899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>78618.633135</v>
+        <v>78618.633134999996</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.838509</v>
+        <v>21.838508999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1112.310000</v>
+        <v>1112.31</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.394000</v>
+        <v>-310.39400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>78629.412721</v>
+        <v>78629.412721000001</v>
       </c>
       <c r="BO5" s="1">
         <v>21.841504</v>
       </c>
       <c r="BP5" s="1">
-        <v>1220.990000</v>
+        <v>1220.99</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.575000</v>
+        <v>-490.57499999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>78639.819748</v>
+        <v>78639.819747999994</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.844394</v>
+        <v>21.844394000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1342.750000</v>
+        <v>1342.75</v>
       </c>
       <c r="BV5" s="1">
-        <v>-687.304000</v>
+        <v>-687.30399999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>78650.976789</v>
+        <v>78650.976788999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.847494</v>
+        <v>21.847494000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1477.680000</v>
+        <v>1477.68</v>
       </c>
       <c r="CA5" s="1">
-        <v>-895.423000</v>
+        <v>-895.423</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>78662.592565</v>
+        <v>78662.592564999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.850720</v>
+        <v>21.850719999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1827.530000</v>
+        <v>1827.53</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1388.120000</v>
+        <v>-1388.12</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>78491.389463</v>
       </c>
       <c r="B6" s="1">
-        <v>21.803164</v>
+        <v>21.803163999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>903.686000</v>
+        <v>903.68600000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.833000</v>
+        <v>-198.833</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>78501.784617</v>
+        <v>78501.784616999998</v>
       </c>
       <c r="G6" s="1">
         <v>21.806051</v>
       </c>
       <c r="H6" s="1">
-        <v>921.658000</v>
+        <v>921.65800000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.558000</v>
+        <v>-168.55799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>78512.270043</v>
+        <v>78512.270042999997</v>
       </c>
       <c r="L6" s="1">
         <v>21.808964</v>
       </c>
       <c r="M6" s="1">
-        <v>946.115000</v>
+        <v>946.11500000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.754000</v>
+        <v>-120.754</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>78522.949903</v>
+        <v>78522.949903000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.811931</v>
+        <v>21.811931000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>953.308000</v>
+        <v>953.30799999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.699000</v>
+        <v>-104.699</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>78533.350050</v>
+        <v>78533.350049999994</v>
       </c>
       <c r="V6" s="1">
         <v>21.814819</v>
       </c>
       <c r="W6" s="1">
-        <v>960.335000</v>
+        <v>960.33500000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.563800</v>
+        <v>-89.563800000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>78543.449060</v>
+        <v>78543.449059999999</v>
       </c>
       <c r="AA6" s="1">
         <v>21.817625</v>
       </c>
       <c r="AB6" s="1">
-        <v>967.831000</v>
+        <v>967.83100000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.760600</v>
+        <v>-77.760599999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>78553.930020</v>
+        <v>78553.93002</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.820536</v>
+        <v>21.820536000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.783000</v>
+        <v>972.78300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.444100</v>
+        <v>-75.444100000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>78564.406553</v>
+        <v>78564.406552999993</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.823446</v>
+        <v>21.823446000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>980.219000</v>
+        <v>980.21900000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.876000</v>
+        <v>-79.876000000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>78574.663295</v>
+        <v>78574.663295000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.826295</v>
+        <v>21.826294999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.353000</v>
+        <v>988.35299999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.163900</v>
+        <v>-91.163899999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>78585.710190</v>
+        <v>78585.710189999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.829364</v>
+        <v>21.829364000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.232000</v>
+        <v>998.23199999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.568000</v>
+        <v>-108.568</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>78597.278416</v>
+        <v>78597.278416000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.832577</v>
+        <v>21.832577000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.049000</v>
+        <v>-124.04900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>78608.189901</v>
+        <v>78608.189901000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.835608</v>
+        <v>21.835608000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.250000</v>
+        <v>-195.25</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>78618.986783</v>
@@ -1689,240 +2105,240 @@
         <v>21.838607</v>
       </c>
       <c r="BK6" s="1">
-        <v>1112.280000</v>
+        <v>1112.28</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.382000</v>
+        <v>-310.38200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>78629.836768</v>
+        <v>78629.836767999994</v>
       </c>
       <c r="BO6" s="1">
         <v>21.841621</v>
       </c>
       <c r="BP6" s="1">
-        <v>1220.980000</v>
+        <v>1220.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.576000</v>
+        <v>-490.57600000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>78640.250275</v>
+        <v>78640.250274999999</v>
       </c>
       <c r="BT6" s="1">
         <v>21.844514</v>
       </c>
       <c r="BU6" s="1">
-        <v>1342.810000</v>
+        <v>1342.81</v>
       </c>
       <c r="BV6" s="1">
-        <v>-687.225000</v>
+        <v>-687.22500000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>78651.397892</v>
+        <v>78651.397891999994</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.847611</v>
+        <v>21.847611000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1477.650000</v>
+        <v>1477.65</v>
       </c>
       <c r="CA6" s="1">
-        <v>-895.426000</v>
+        <v>-895.42600000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>78663.127748</v>
+        <v>78663.127747999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.850869</v>
+        <v>21.850868999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1828.330000</v>
+        <v>1828.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1389.380000</v>
+        <v>-1389.38</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>78491.731207</v>
+        <v>78491.731207000004</v>
       </c>
       <c r="B7" s="1">
-        <v>21.803259</v>
+        <v>21.803259000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>903.554000</v>
+        <v>903.55399999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.915000</v>
+        <v>-198.91499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>78502.128345</v>
+        <v>78502.128345000005</v>
       </c>
       <c r="G7" s="1">
-        <v>21.806147</v>
+        <v>21.806146999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>921.916000</v>
+        <v>921.91600000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.895000</v>
+        <v>-168.89500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>78512.923275</v>
+        <v>78512.923274999994</v>
       </c>
       <c r="L7" s="1">
-        <v>21.809145</v>
+        <v>21.809145000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>945.978000</v>
+        <v>945.97799999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.888000</v>
+        <v>-120.88800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>78523.399277</v>
+        <v>78523.399277000004</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.812055</v>
+        <v>21.812055000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>953.319000</v>
+        <v>953.31899999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.612000</v>
+        <v>-104.61199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>78533.724031</v>
+        <v>78533.724031000005</v>
       </c>
       <c r="V7" s="1">
         <v>21.814923</v>
       </c>
       <c r="W7" s="1">
-        <v>960.323000</v>
+        <v>960.32299999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.523800</v>
+        <v>-89.523799999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>78543.799763</v>
+        <v>78543.799763000003</v>
       </c>
       <c r="AA7" s="1">
         <v>21.817722</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.836000</v>
+        <v>967.83600000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.741500</v>
+        <v>-77.741500000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>78554.279716</v>
+        <v>78554.279716000005</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.820633</v>
+        <v>21.820633000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.959000</v>
+        <v>972.95899999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.402100</v>
+        <v>-75.402100000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>78564.754214</v>
+        <v>78564.754214000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.823543</v>
+        <v>21.823543000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>980.183000</v>
+        <v>980.18299999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.832700</v>
+        <v>-79.832700000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>78575.092824</v>
+        <v>78575.092824000007</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.826415</v>
+        <v>21.826415000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.346000</v>
+        <v>988.346</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.153600</v>
+        <v>-91.153599999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>78586.143504</v>
+        <v>78586.143504000007</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.829484</v>
+        <v>21.829484000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.249000</v>
+        <v>998.24900000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.544000</v>
+        <v>-108.544</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>78597.561594</v>
+        <v>78597.561593999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>21.832656</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.058000</v>
+        <v>-124.05800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>78608.583692</v>
@@ -1931,4973 +2347,4974 @@
         <v>21.835718</v>
       </c>
       <c r="BF7" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.258000</v>
+        <v>-195.25800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>78619.363279</v>
+        <v>78619.363278999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.838712</v>
+        <v>21.838712000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1112.290000</v>
+        <v>1112.29</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.382000</v>
+        <v>-310.38200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>78630.234561</v>
+        <v>78630.234561000005</v>
       </c>
       <c r="BO7" s="1">
         <v>21.841732</v>
       </c>
       <c r="BP7" s="1">
-        <v>1221.000000</v>
+        <v>1221</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.541000</v>
+        <v>-490.541</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>78640.679810</v>
+        <v>78640.679810000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.844633</v>
+        <v>21.844633000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1342.850000</v>
+        <v>1342.85</v>
       </c>
       <c r="BV7" s="1">
-        <v>-687.221000</v>
+        <v>-687.221</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>78651.828389</v>
+        <v>78651.828389000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.847730</v>
+        <v>21.847729999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1477.720000</v>
+        <v>1477.72</v>
       </c>
       <c r="CA7" s="1">
-        <v>-895.465000</v>
+        <v>-895.46500000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>78663.668387</v>
+        <v>78663.668386999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.851019</v>
+        <v>21.851019000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1828.610000</v>
+        <v>1828.61</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1388.190000</v>
+        <v>-1388.19</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>78492.405803</v>
+        <v>78492.405803000001</v>
       </c>
       <c r="B8" s="1">
-        <v>21.803446</v>
+        <v>21.803446000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>903.723000</v>
+        <v>903.72299999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.674000</v>
+        <v>-198.67400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>78502.787064</v>
+        <v>78502.787064000004</v>
       </c>
       <c r="G8" s="1">
-        <v>21.806330</v>
+        <v>21.806329999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>921.381000</v>
+        <v>921.38099999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.236000</v>
+        <v>-169.23599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>78513.304731</v>
+        <v>78513.304730999997</v>
       </c>
       <c r="L8" s="1">
         <v>21.809251</v>
       </c>
       <c r="M8" s="1">
-        <v>946.193000</v>
+        <v>946.19299999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.988000</v>
+        <v>-120.988</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>78523.522780</v>
+        <v>78523.522779999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.812090</v>
+        <v>21.812090000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>953.309000</v>
+        <v>953.30899999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.626000</v>
+        <v>-104.626</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>78534.073184</v>
+        <v>78534.073183999993</v>
       </c>
       <c r="V8" s="1">
-        <v>21.815020</v>
+        <v>21.815020000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>960.255000</v>
+        <v>960.255</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.541500</v>
+        <v>-89.541499999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>78544.145441</v>
+        <v>78544.145441000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.817818</v>
+        <v>21.817817999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>967.935000</v>
+        <v>967.93499999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.820800</v>
+        <v>-77.820800000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>78554.621941</v>
+        <v>78554.621941000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.820728</v>
+        <v>21.820727999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>972.970000</v>
+        <v>972.97</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.383900</v>
+        <v>-75.383899999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>78565.179286</v>
+        <v>78565.179285999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.823661</v>
+        <v>21.823661000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>980.224000</v>
+        <v>980.22400000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.863500</v>
+        <v>-79.863500000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>78575.385962</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.826496</v>
+        <v>21.826495999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.353000</v>
+        <v>988.35299999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.187400</v>
+        <v>-91.187399999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>78586.436825</v>
+        <v>78586.436824999997</v>
       </c>
       <c r="AU8" s="1">
         <v>21.829566</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.239000</v>
+        <v>998.23900000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.563000</v>
+        <v>-108.563</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>78597.920730</v>
+        <v>78597.920729999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>21.832756</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.530000</v>
+        <v>1006.53</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.065000</v>
+        <v>-124.065</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>78608.964124</v>
+        <v>78608.964124000006</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.835823</v>
+        <v>21.835823000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.273000</v>
+        <v>-195.273</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>78619.738254</v>
+        <v>78619.738253999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.838816</v>
+        <v>21.838816000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1112.300000</v>
+        <v>1112.3</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.375000</v>
+        <v>-310.375</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>78630.668596</v>
+        <v>78630.668596000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.841852</v>
+        <v>21.841851999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1221.000000</v>
+        <v>1221</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.581000</v>
+        <v>-490.58100000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>78641.521521</v>
+        <v>78641.521521000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.844867</v>
+        <v>21.844867000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1342.900000</v>
+        <v>1342.9</v>
       </c>
       <c r="BV8" s="1">
-        <v>-687.130000</v>
+        <v>-687.13</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>78652.242547</v>
+        <v>78652.242547000002</v>
       </c>
       <c r="BY8" s="1">
         <v>21.847845</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1477.710000</v>
+        <v>1477.71</v>
       </c>
       <c r="CA8" s="1">
-        <v>-895.450000</v>
+        <v>-895.45</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>78664.208035</v>
+        <v>78664.208035000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.851169</v>
+        <v>21.851168999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1827.310000</v>
+        <v>1827.31</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1388.980000</v>
+        <v>-1388.98</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>78492.754489</v>
+        <v>78492.754488999999</v>
       </c>
       <c r="B9" s="1">
-        <v>21.803543</v>
+        <v>21.803543000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>903.667000</v>
+        <v>903.66700000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.932000</v>
+        <v>-198.93199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>78503.161513</v>
+        <v>78503.161512999999</v>
       </c>
       <c r="G9" s="1">
-        <v>21.806434</v>
+        <v>21.806433999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>922.337000</v>
+        <v>922.33699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.256000</v>
+        <v>-169.256</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>78513.652412</v>
+        <v>78513.652411999996</v>
       </c>
       <c r="L9" s="1">
         <v>21.809348</v>
       </c>
       <c r="M9" s="1">
-        <v>946.029000</v>
+        <v>946.029</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.809000</v>
+        <v>-120.809</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>78523.872460</v>
+        <v>78523.872459999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.812187</v>
+        <v>21.812187000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>953.326000</v>
+        <v>953.32600000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.662000</v>
+        <v>-104.66200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>78534.415919</v>
+        <v>78534.415919000006</v>
       </c>
       <c r="V9" s="1">
         <v>21.815116</v>
       </c>
       <c r="W9" s="1">
-        <v>960.269000</v>
+        <v>960.26900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.595800</v>
+        <v>-89.595799999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>78544.579473</v>
+        <v>78544.579473000005</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.817939</v>
+        <v>21.817938999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>967.793000</v>
+        <v>967.79300000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.784200</v>
+        <v>-77.784199999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>78555.054487</v>
+        <v>78555.054487000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.820848</v>
+        <v>21.820848000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>972.753000</v>
+        <v>972.75300000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.366400</v>
+        <v>-75.366399999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>78565.454565</v>
+        <v>78565.454564999993</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.823737</v>
+        <v>21.823737000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>980.201000</v>
+        <v>980.20100000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.845900</v>
+        <v>-79.8459</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>78575.742584</v>
+        <v>78575.742584000007</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.826595</v>
+        <v>21.826595000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.366000</v>
+        <v>988.36599999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.178000</v>
+        <v>-91.177999999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>78586.800922</v>
+        <v>78586.800921999995</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.829667</v>
+        <v>21.829667000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.230000</v>
+        <v>998.23</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.575000</v>
+        <v>-108.575</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>78598.280298</v>
+        <v>78598.280297999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>21.832856</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.530000</v>
+        <v>1006.53</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.048000</v>
+        <v>-124.048</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>78609.684811</v>
+        <v>78609.684810999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.836024</v>
+        <v>21.836023999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.246000</v>
+        <v>-195.24600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>78620.485693</v>
+        <v>78620.485692999995</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.839024</v>
+        <v>21.839023999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1112.300000</v>
+        <v>1112.3</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.354000</v>
+        <v>-310.35399999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>78631.050478</v>
+        <v>78631.050478000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.841958</v>
+        <v>21.841958000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1221.020000</v>
+        <v>1221.02</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.571000</v>
+        <v>-490.57100000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>78641.955025</v>
+        <v>78641.955025000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.844988</v>
+        <v>21.844988000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1342.890000</v>
+        <v>1342.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-687.125000</v>
+        <v>-687.125</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>78652.689444</v>
+        <v>78652.689444000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.847969</v>
+        <v>21.847968999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1477.690000</v>
+        <v>1477.69</v>
       </c>
       <c r="CA9" s="1">
-        <v>-895.548000</v>
+        <v>-895.548</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>78665.065155</v>
+        <v>78665.065155000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.851407</v>
+        <v>21.851406999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1828.170000</v>
+        <v>1828.17</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1387.750000</v>
+        <v>-1387.75</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>78493.086772</v>
+        <v>78493.086771999995</v>
       </c>
       <c r="B10" s="1">
         <v>21.803635</v>
       </c>
       <c r="C10" s="1">
-        <v>903.725000</v>
+        <v>903.72500000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.813000</v>
+        <v>-198.81299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>78503.505735</v>
+        <v>78503.505734999999</v>
       </c>
       <c r="G10" s="1">
-        <v>21.806529</v>
+        <v>21.806529000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>921.348000</v>
+        <v>921.34799999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.963000</v>
+        <v>-168.96299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>78513.997147</v>
+        <v>78513.997147000002</v>
       </c>
       <c r="L10" s="1">
-        <v>21.809444</v>
+        <v>21.809443999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>946.119000</v>
+        <v>946.11900000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.987000</v>
+        <v>-120.98699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>78524.300539</v>
+        <v>78524.300539000003</v>
       </c>
       <c r="Q10" s="1">
         <v>21.812306</v>
       </c>
       <c r="R10" s="1">
-        <v>953.328000</v>
+        <v>953.32799999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.612000</v>
+        <v>-104.61199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>78534.844991</v>
+        <v>78534.844991000005</v>
       </c>
       <c r="V10" s="1">
-        <v>21.815235</v>
+        <v>21.815235000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>960.337000</v>
+        <v>960.33699999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.623100</v>
+        <v>-89.623099999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>78544.851745</v>
+        <v>78544.851745000007</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.818014</v>
+        <v>21.818014000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.947000</v>
+        <v>967.947</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.738400</v>
+        <v>-77.738399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>78555.319315</v>
+        <v>78555.319315000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.820922</v>
+        <v>21.820921999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.908000</v>
+        <v>972.90800000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.441900</v>
+        <v>-75.441900000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>78565.801766</v>
+        <v>78565.801766000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.823834</v>
+        <v>21.823834000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>980.208000</v>
+        <v>980.20799999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.843100</v>
+        <v>-79.843100000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>78576.103673</v>
+        <v>78576.103673000005</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.826695</v>
+        <v>21.826695000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.357000</v>
+        <v>988.35699999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.154400</v>
+        <v>-91.154399999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>78587.167465</v>
+        <v>78587.167465000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.829769</v>
+        <v>21.829768999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.229000</v>
+        <v>998.22900000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.546000</v>
+        <v>-108.54600000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>78598.999033</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.833055</v>
+        <v>21.833055000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.520000</v>
+        <v>1006.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>78610.048378</v>
+        <v>78610.048378000007</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.836125</v>
+        <v>21.836124999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.271000</v>
+        <v>-195.27099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>78620.863645</v>
+        <v>78620.863645000005</v>
       </c>
       <c r="BJ10" s="1">
         <v>21.839129</v>
       </c>
       <c r="BK10" s="1">
-        <v>1112.290000</v>
+        <v>1112.29</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.385000</v>
+        <v>-310.38499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>78631.471087</v>
+        <v>78631.471086999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.842075</v>
+        <v>21.842075000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1220.970000</v>
+        <v>1220.97</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.571000</v>
+        <v>-490.57100000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>78642.707951</v>
+        <v>78642.707951000004</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.845197</v>
+        <v>21.845196999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1342.890000</v>
+        <v>1342.89</v>
       </c>
       <c r="BV10" s="1">
-        <v>-687.105000</v>
+        <v>-687.10500000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>78653.441411</v>
+        <v>78653.441411000007</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.848178</v>
+        <v>21.848178000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1477.650000</v>
+        <v>1477.65</v>
       </c>
       <c r="CA10" s="1">
-        <v>-895.511000</v>
+        <v>-895.51099999999997</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>78665.288322</v>
+        <v>78665.288321999993</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.851469</v>
+        <v>21.851469000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1828.040000</v>
+        <v>1828.04</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1387.930000</v>
+        <v>-1387.93</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>78493.441445</v>
+        <v>78493.441445000004</v>
       </c>
       <c r="B11" s="1">
-        <v>21.803734</v>
+        <v>21.803733999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>903.707000</v>
+        <v>903.70699999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.962000</v>
+        <v>-198.96199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>78503.850455</v>
+        <v>78503.850455000007</v>
       </c>
       <c r="G11" s="1">
         <v>21.806625</v>
       </c>
       <c r="H11" s="1">
-        <v>921.705000</v>
+        <v>921.70500000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.893000</v>
+        <v>-168.893</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>78514.414248</v>
+        <v>78514.414248000001</v>
       </c>
       <c r="L11" s="1">
-        <v>21.809560</v>
+        <v>21.809560000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>946.084000</v>
+        <v>946.08399999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.927000</v>
+        <v>-120.92700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>78524.580252</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.812383</v>
+        <v>21.812383000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>953.372000</v>
+        <v>953.37199999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.638000</v>
+        <v>-104.63800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>78535.111310</v>
+        <v>78535.111309999993</v>
       </c>
       <c r="V11" s="1">
-        <v>21.815309</v>
+        <v>21.815308999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>960.451000</v>
+        <v>960.45100000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.581100</v>
+        <v>-89.581100000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>78545.201920</v>
+        <v>78545.201920000007</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.818112</v>
+        <v>21.818111999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.863000</v>
+        <v>967.86300000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.728300</v>
+        <v>-77.728300000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>78555.662786</v>
+        <v>78555.662786000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.821017</v>
+        <v>21.821017000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>972.757000</v>
+        <v>972.75699999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.577200</v>
+        <v>-75.577200000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>78566.148964</v>
+        <v>78566.148964000007</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.823930</v>
+        <v>21.823930000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>980.217000</v>
+        <v>980.21699999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.832700</v>
+        <v>-79.832700000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>78576.824390</v>
+        <v>78576.824389999994</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.826896</v>
+        <v>21.826896000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.363000</v>
+        <v>988.36300000000006</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.160500</v>
+        <v>-91.160499999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>78587.907959</v>
+        <v>78587.907959000004</v>
       </c>
       <c r="AU11" s="1">
         <v>21.829974</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.239000</v>
+        <v>998.23900000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.561000</v>
+        <v>-108.56100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>78599.356639</v>
+        <v>78599.356639000005</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.833155</v>
+        <v>21.833155000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.530000</v>
+        <v>1006.53</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.045000</v>
+        <v>-124.045</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>78610.408475</v>
+        <v>78610.408475000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.836225</v>
+        <v>21.836224999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>78621.239115</v>
+        <v>78621.239115000004</v>
       </c>
       <c r="BJ11" s="1">
         <v>21.839233</v>
       </c>
       <c r="BK11" s="1">
-        <v>1112.280000</v>
+        <v>1112.28</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.388000</v>
+        <v>-310.38799999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>78632.179373</v>
+        <v>78632.179373000006</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.842272</v>
+        <v>21.842272000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1220.980000</v>
+        <v>1220.98</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.566000</v>
+        <v>-490.56599999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>78642.827487</v>
+        <v>78642.827487000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.845230</v>
+        <v>21.845230000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1342.890000</v>
+        <v>1342.89</v>
       </c>
       <c r="BV11" s="1">
-        <v>-687.111000</v>
+        <v>-687.11099999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>78653.554072</v>
+        <v>78653.554071999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.848209</v>
+        <v>21.848209000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1477.690000</v>
+        <v>1477.69</v>
       </c>
       <c r="CA11" s="1">
-        <v>-895.462000</v>
+        <v>-895.46199999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>78665.808625</v>
+        <v>78665.808625000005</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.851614</v>
+        <v>21.851614000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1827.360000</v>
+        <v>1827.36</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1388.750000</v>
+        <v>-1388.75</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>78493.864533</v>
       </c>
       <c r="B12" s="1">
-        <v>21.803851</v>
+        <v>21.803851000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>903.783000</v>
+        <v>903.78300000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.883000</v>
+        <v>-198.88300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>78504.281510</v>
+        <v>78504.281510000001</v>
       </c>
       <c r="G12" s="1">
-        <v>21.806745</v>
+        <v>21.806744999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>921.891000</v>
+        <v>921.89099999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.963000</v>
+        <v>-168.96299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>78514.711352</v>
+        <v>78514.711351999998</v>
       </c>
       <c r="L12" s="1">
         <v>21.809642</v>
       </c>
       <c r="M12" s="1">
-        <v>946.193000</v>
+        <v>946.19299999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.754000</v>
+        <v>-120.754</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>78524.927947</v>
+        <v>78524.927947000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.812480</v>
+        <v>21.812480000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>953.360000</v>
+        <v>953.36</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.637000</v>
+        <v>-104.637</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>78535.460526</v>
+        <v>78535.460525999995</v>
       </c>
       <c r="V12" s="1">
-        <v>21.815406</v>
+        <v>21.815405999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>960.344000</v>
+        <v>960.34400000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.567500</v>
+        <v>-89.567499999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>78545.551136</v>
+        <v>78545.551135999995</v>
       </c>
       <c r="AA12" s="1">
         <v>21.818209</v>
       </c>
       <c r="AB12" s="1">
-        <v>967.883000</v>
+        <v>967.88300000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.778900</v>
+        <v>-77.778899999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>78556.007266</v>
+        <v>78556.007266000001</v>
       </c>
       <c r="AF12" s="1">
         <v>21.821113</v>
       </c>
       <c r="AG12" s="1">
-        <v>972.772000</v>
+        <v>972.77200000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.315600</v>
+        <v>-75.315600000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>78566.850307</v>
+        <v>78566.850307000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.824125</v>
+        <v>21.824124999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>980.202000</v>
+        <v>980.202</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.863200</v>
+        <v>-79.863200000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>78577.185943</v>
+        <v>78577.185943000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.826996</v>
+        <v>21.826996000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.349000</v>
+        <v>988.34900000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.179100</v>
+        <v>-91.179100000000005</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>78588.288888</v>
+        <v>78588.288887999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.830080</v>
+        <v>21.830079999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.239000</v>
+        <v>998.23900000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.555000</v>
+        <v>-108.55500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>78599.716216</v>
+        <v>78599.716216000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.833255</v>
+        <v>21.833255000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.480000</v>
+        <v>1006.48</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.024000</v>
+        <v>-124.024</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>78611.075621</v>
+        <v>78611.075620999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.836410</v>
+        <v>21.836410000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.250000</v>
+        <v>-195.25</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>78621.940956</v>
+        <v>78621.940956000006</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.839428</v>
+        <v>21.839428000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1112.280000</v>
+        <v>1112.28</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.365000</v>
+        <v>-310.36500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>78632.294941</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.842304</v>
+        <v>21.842303999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1220.990000</v>
+        <v>1220.99</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.568000</v>
+        <v>-490.56799999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>78643.241678</v>
+        <v>78643.241678000006</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.845345</v>
+        <v>21.845344999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1342.880000</v>
+        <v>1342.88</v>
       </c>
       <c r="BV12" s="1">
-        <v>-687.064000</v>
+        <v>-687.06399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>78653.982514</v>
+        <v>78653.982514000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.848328</v>
+        <v>21.848327999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1477.730000</v>
+        <v>1477.73</v>
       </c>
       <c r="CA12" s="1">
-        <v>-895.434000</v>
+        <v>-895.43399999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>78666.324497</v>
+        <v>78666.324496999994</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.851757</v>
+        <v>21.851756999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1827.580000</v>
+        <v>1827.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1388.760000</v>
+        <v>-1388.76</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>78494.138787</v>
+        <v>78494.138787000004</v>
       </c>
       <c r="B13" s="1">
-        <v>21.803927</v>
+        <v>21.803927000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>903.723000</v>
+        <v>903.72299999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.896000</v>
+        <v>-198.89599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>78504.560726</v>
+        <v>78504.560725999996</v>
       </c>
       <c r="G13" s="1">
         <v>21.806822</v>
       </c>
       <c r="H13" s="1">
-        <v>921.694000</v>
+        <v>921.69399999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.372000</v>
+        <v>-169.37200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>78515.055576</v>
+        <v>78515.055575999999</v>
       </c>
       <c r="L13" s="1">
-        <v>21.809738</v>
+        <v>21.809737999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>946.193000</v>
+        <v>946.19299999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.027000</v>
+        <v>-121.027</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>78525.277627</v>
+        <v>78525.277627000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.812577</v>
+        <v>21.812577000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>953.307000</v>
+        <v>953.30700000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.677000</v>
+        <v>-104.67700000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>78535.800750</v>
+        <v>78535.800749999995</v>
       </c>
       <c r="V13" s="1">
-        <v>21.815500</v>
+        <v>21.8155</v>
       </c>
       <c r="W13" s="1">
-        <v>960.384000</v>
+        <v>960.38400000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.601700</v>
+        <v>-89.601699999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>78546.249007</v>
+        <v>78546.249007000006</v>
       </c>
       <c r="AA13" s="1">
         <v>21.818403</v>
       </c>
       <c r="AB13" s="1">
-        <v>967.888000</v>
+        <v>967.88800000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.794500</v>
+        <v>-77.794499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>78556.737905</v>
+        <v>78556.737905000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.821316</v>
+        <v>21.821315999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>972.639000</v>
+        <v>972.63900000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.461200</v>
+        <v>-75.461200000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>78567.195523</v>
+        <v>78567.195523000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.824221</v>
+        <v>21.824221000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>980.205000</v>
+        <v>980.20500000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.827700</v>
+        <v>-79.827699999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>78577.547029</v>
+        <v>78577.547028999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.827096</v>
+        <v>21.827096000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.366000</v>
+        <v>988.36599999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.163300</v>
+        <v>-91.163300000000007</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>78588.653448</v>
+        <v>78588.653447999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.830182</v>
+        <v>21.830182000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.238000</v>
+        <v>998.23800000000006</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.566000</v>
+        <v>-108.566</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>78600.383335</v>
+        <v>78600.383335000006</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.833440</v>
+        <v>21.83344</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.520000</v>
+        <v>1006.52</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.045000</v>
+        <v>-124.045</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>78611.525960</v>
+        <v>78611.525959999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.836535</v>
+        <v>21.836535000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.264000</v>
+        <v>-195.26400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>78622.364042</v>
+        <v>78622.364042000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.839546</v>
+        <v>21.839545999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1112.300000</v>
+        <v>1112.3</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.373000</v>
+        <v>-310.37299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>78632.710626</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.842420</v>
+        <v>21.842420000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1220.990000</v>
+        <v>1220.99</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.581000</v>
+        <v>-490.58100000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>78643.667214</v>
+        <v>78643.667214000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.845463</v>
+        <v>21.845462999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1342.890000</v>
+        <v>1342.89</v>
       </c>
       <c r="BV13" s="1">
-        <v>-687.025000</v>
+        <v>-687.02499999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>78654.414527</v>
+        <v>78654.414527000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.848448</v>
+        <v>21.848448000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1477.690000</v>
+        <v>1477.69</v>
       </c>
       <c r="CA13" s="1">
-        <v>-895.419000</v>
+        <v>-895.41899999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>78666.877007</v>
+        <v>78666.877007000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.851910</v>
+        <v>21.85191</v>
       </c>
       <c r="CE13" s="1">
-        <v>1828.080000</v>
+        <v>1828.08</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1388.070000</v>
+        <v>-1388.07</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>78494.482051</v>
+        <v>78494.482050999999</v>
       </c>
       <c r="B14" s="1">
-        <v>21.804023</v>
+        <v>21.804023000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>903.719000</v>
+        <v>903.71900000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.792000</v>
+        <v>-198.792</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>78504.905447</v>
+        <v>78504.905446999997</v>
       </c>
       <c r="G14" s="1">
         <v>21.806918</v>
       </c>
       <c r="H14" s="1">
-        <v>921.842000</v>
+        <v>921.84199999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.215000</v>
+        <v>-169.215</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>78515.399678</v>
+        <v>78515.399678000002</v>
       </c>
       <c r="L14" s="1">
-        <v>21.809833</v>
+        <v>21.809833000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>946.039000</v>
+        <v>946.03899999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.785000</v>
+        <v>-120.785</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>78525.974507</v>
+        <v>78525.974507000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.812771</v>
+        <v>21.812771000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>953.327000</v>
+        <v>953.327</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.613000</v>
+        <v>-104.613</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>78536.487243</v>
+        <v>78536.487242999996</v>
       </c>
       <c r="V14" s="1">
-        <v>21.815691</v>
+        <v>21.815691000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>960.240000</v>
+        <v>960.24</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.592000</v>
+        <v>-89.591999999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>78546.597695</v>
+        <v>78546.597695000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.818499</v>
+        <v>21.818498999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>967.802000</v>
+        <v>967.80200000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.782500</v>
+        <v>-77.782499999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>78557.033985</v>
+        <v>78557.033985000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.821398</v>
+        <v>21.821397999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.722000</v>
+        <v>972.72199999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.468900</v>
+        <v>-75.468900000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>78567.546691</v>
+        <v>78567.546690999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.824319</v>
+        <v>21.824318999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>980.213000</v>
+        <v>980.21299999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.855500</v>
+        <v>-79.855500000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>78578.219108</v>
+        <v>78578.219108000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.827283</v>
+        <v>21.827283000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.368000</v>
+        <v>988.36800000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.173400</v>
+        <v>-91.173400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>78589.335943</v>
+        <v>78589.335942999998</v>
       </c>
       <c r="AU14" s="1">
         <v>21.830371</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.232000</v>
+        <v>998.23199999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.560000</v>
+        <v>-108.56</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>78600.793527</v>
+        <v>78600.793527000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.833554</v>
+        <v>21.833553999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.065000</v>
+        <v>-124.065</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>78611.888537</v>
+        <v>78611.888537000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.836636</v>
+        <v>21.836635999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1045.300000</v>
+        <v>1045.3</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.257000</v>
+        <v>-195.25700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>78622.740506</v>
+        <v>78622.740506000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.839650</v>
+        <v>21.839649999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1112.280000</v>
+        <v>1112.28</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.393000</v>
+        <v>-310.39299999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>78633.109873</v>
+        <v>78633.109872999994</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.842531</v>
+        <v>21.842531000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1220.970000</v>
+        <v>1220.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.556000</v>
+        <v>-490.55599999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>78644.110637</v>
+        <v>78644.110637000005</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.845586</v>
+        <v>21.845586000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1342.900000</v>
+        <v>1342.9</v>
       </c>
       <c r="BV14" s="1">
-        <v>-686.903000</v>
+        <v>-686.90300000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>78654.845056</v>
+        <v>78654.845056000006</v>
       </c>
       <c r="BY14" s="1">
         <v>21.848568</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1477.560000</v>
+        <v>1477.56</v>
       </c>
       <c r="CA14" s="1">
-        <v>-895.583000</v>
+        <v>-895.58299999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>78667.408719</v>
+        <v>78667.408718999999</v>
       </c>
       <c r="CD14" s="1">
         <v>21.852058</v>
       </c>
       <c r="CE14" s="1">
-        <v>1827.530000</v>
+        <v>1827.53</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1388.890000</v>
+        <v>-1388.89</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>78494.826274</v>
+        <v>78494.826274000006</v>
       </c>
       <c r="B15" s="1">
-        <v>21.804118</v>
+        <v>21.804117999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>903.834000</v>
+        <v>903.83399999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.731000</v>
+        <v>-198.73099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>78505.252149</v>
+        <v>78505.252149000007</v>
       </c>
       <c r="G15" s="1">
-        <v>21.807014</v>
+        <v>21.807013999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>921.598000</v>
+        <v>921.59799999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.714000</v>
+        <v>-168.714</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>78516.096715</v>
+        <v>78516.096715000007</v>
       </c>
       <c r="L15" s="1">
-        <v>21.810027</v>
+        <v>21.810027000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>946.083000</v>
+        <v>946.08299999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.829000</v>
+        <v>-120.82899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>78526.320751</v>
+        <v>78526.320751000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.812867</v>
+        <v>21.812867000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>953.331000</v>
+        <v>953.33100000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.614000</v>
+        <v>-104.614</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>78536.830445</v>
       </c>
       <c r="V15" s="1">
-        <v>21.815786</v>
+        <v>21.815785999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>960.436000</v>
+        <v>960.43600000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.619600</v>
+        <v>-89.619600000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>78546.947007</v>
+        <v>78546.947006999995</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.818596</v>
+        <v>21.818595999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>967.922000</v>
+        <v>967.92200000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.711600</v>
+        <v>-77.711600000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>78557.696030</v>
+        <v>78557.696030000006</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.821582</v>
+        <v>21.821581999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>972.771000</v>
+        <v>972.77099999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.409600</v>
+        <v>-75.409599999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>78568.209345</v>
+        <v>78568.209344999996</v>
       </c>
       <c r="AK15" s="1">
         <v>21.824503</v>
       </c>
       <c r="AL15" s="1">
-        <v>980.196000</v>
+        <v>980.19600000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.841400</v>
+        <v>-79.841399999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>78578.652613</v>
+        <v>78578.652612999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.827404</v>
+        <v>21.827404000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.379000</v>
+        <v>988.37900000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.159500</v>
+        <v>-91.159499999999994</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>78589.779365</v>
+        <v>78589.779364999995</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.830494</v>
+        <v>21.830494000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.234000</v>
+        <v>998.23400000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.567000</v>
+        <v>-108.56699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>78601.176471</v>
+        <v>78601.176470999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.833660</v>
+        <v>21.833659999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.055000</v>
+        <v>-124.05500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>78612.248137</v>
+        <v>78612.248137000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.836736</v>
+        <v>21.836735999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1045.290000</v>
+        <v>1045.29</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.265000</v>
+        <v>-195.26499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>78623.116971</v>
+        <v>78623.116970999996</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.839755</v>
       </c>
       <c r="BK15" s="1">
-        <v>1112.290000</v>
+        <v>1112.29</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.370000</v>
+        <v>-310.37</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>78633.535931</v>
+        <v>78633.535931000006</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.842649</v>
+        <v>21.842649000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1220.960000</v>
+        <v>1220.96</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.566000</v>
+        <v>-490.56599999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>78644.490108</v>
+        <v>78644.490107999998</v>
       </c>
       <c r="BT15" s="1">
         <v>21.845692</v>
       </c>
       <c r="BU15" s="1">
-        <v>1342.840000</v>
+        <v>1342.84</v>
       </c>
       <c r="BV15" s="1">
-        <v>-686.908000</v>
+        <v>-686.90800000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>78655.258223</v>
+        <v>78655.258222999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.848683</v>
+        <v>21.848683000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1477.640000</v>
+        <v>1477.64</v>
       </c>
       <c r="CA15" s="1">
-        <v>-895.511000</v>
+        <v>-895.51099999999997</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>78667.925550</v>
+        <v>78667.92555</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.852202</v>
+        <v>21.852201999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1827.350000</v>
+        <v>1827.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1388.570000</v>
+        <v>-1388.57</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>78495.506258</v>
+        <v>78495.506257999994</v>
       </c>
       <c r="B16" s="1">
-        <v>21.804307</v>
+        <v>21.804307000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>903.711000</v>
+        <v>903.71100000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.963000</v>
+        <v>-198.96299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>78505.945589</v>
+        <v>78505.945588999995</v>
       </c>
       <c r="G16" s="1">
-        <v>21.807207</v>
+        <v>21.807206999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>922.038000</v>
+        <v>922.03800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.920000</v>
+        <v>-168.92</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>78516.444871</v>
       </c>
       <c r="L16" s="1">
-        <v>21.810124</v>
+        <v>21.810123999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>946.032000</v>
+        <v>946.03200000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.773000</v>
+        <v>-120.773</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>78526.674361</v>
+        <v>78526.674360999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.812965</v>
+        <v>21.812964999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>953.366000</v>
+        <v>953.36599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.602000</v>
+        <v>-104.602</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>78537.173179</v>
+        <v>78537.173179000005</v>
       </c>
       <c r="V16" s="1">
-        <v>21.815881</v>
+        <v>21.815881000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>960.374000</v>
+        <v>960.37400000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.529700</v>
+        <v>-89.529700000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>78547.606526</v>
+        <v>78547.606526000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.818780</v>
+        <v>21.81878</v>
       </c>
       <c r="AB16" s="1">
-        <v>967.895000</v>
+        <v>967.89499999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.812600</v>
+        <v>-77.812600000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>78558.067647</v>
+        <v>78558.067647000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.821685</v>
+        <v>21.821684999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>972.748000</v>
+        <v>972.74800000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.244800</v>
+        <v>-75.244799999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>78568.593250</v>
+        <v>78568.593250000005</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.824609</v>
+        <v>21.824608999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>980.199000</v>
+        <v>980.19899999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.818700</v>
+        <v>-79.818700000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>78579.014691</v>
+        <v>78579.014691000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.827504</v>
+        <v>21.827504000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.367000</v>
+        <v>988.36699999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.171500</v>
+        <v>-91.171499999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>78590.138967</v>
+        <v>78590.138967000006</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.830594</v>
+        <v>21.830594000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.243000</v>
+        <v>998.24300000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.559000</v>
+        <v>-108.559</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>78601.534059</v>
+        <v>78601.534058999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.833759</v>
+        <v>21.833759000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.061000</v>
+        <v>-124.06100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>78612.671731</v>
+        <v>78612.671730999995</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.836853</v>
+        <v>21.836853000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.257000</v>
+        <v>-195.25700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>78623.552456</v>
+        <v>78623.552456000005</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.839876</v>
       </c>
       <c r="BK16" s="1">
-        <v>1112.290000</v>
+        <v>1112.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.364000</v>
+        <v>-310.36399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>78633.930779</v>
+        <v>78633.930779000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.842759</v>
+        <v>21.842759000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1220.970000</v>
+        <v>1220.97</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.586000</v>
+        <v>-490.58600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>78644.921472</v>
+        <v>78644.921472000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.845812</v>
+        <v>21.845811999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1342.880000</v>
+        <v>1342.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-686.837000</v>
+        <v>-686.83699999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>78655.683822</v>
+        <v>78655.683822000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.848801</v>
+        <v>21.848801000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1477.680000</v>
+        <v>1477.68</v>
       </c>
       <c r="CA16" s="1">
-        <v>-895.438000</v>
+        <v>-895.43799999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>78668.475615</v>
+        <v>78668.475615000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.852354</v>
+        <v>21.852353999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.960000</v>
+        <v>1827.96</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1387.920000</v>
+        <v>-1387.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>78495.848033</v>
+        <v>78495.848033000002</v>
       </c>
       <c r="B17" s="1">
         <v>21.804402</v>
       </c>
       <c r="C17" s="1">
-        <v>903.664000</v>
+        <v>903.66399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.829000</v>
+        <v>-198.82900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>78506.292261</v>
+        <v>78506.292260999995</v>
       </c>
       <c r="G17" s="1">
-        <v>21.807303</v>
+        <v>21.807303000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>921.791000</v>
+        <v>921.79100000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.128000</v>
+        <v>-169.12799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>78516.790086</v>
+        <v>78516.790085999994</v>
       </c>
       <c r="L17" s="1">
         <v>21.810219</v>
       </c>
       <c r="M17" s="1">
-        <v>946.176000</v>
+        <v>946.17600000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.757000</v>
+        <v>-120.75700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>78527.333579</v>
+        <v>78527.333578999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.813148</v>
+        <v>21.813148000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>953.347000</v>
+        <v>953.34699999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.666000</v>
+        <v>-104.666</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>78537.829883</v>
+        <v>78537.829882999999</v>
       </c>
       <c r="V17" s="1">
-        <v>21.816064</v>
+        <v>21.816064000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>960.313000</v>
+        <v>960.31299999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.516700</v>
+        <v>-89.5167</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>78547.990957</v>
+        <v>78547.990957000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.818886</v>
+        <v>21.818885999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>967.885000</v>
+        <v>967.88499999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.728700</v>
+        <v>-77.728700000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>78558.410878</v>
+        <v>78558.410877999995</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.821781</v>
+        <v>21.821781000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>972.953000</v>
+        <v>972.95299999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.295200</v>
+        <v>-75.295199999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>78568.940978</v>
+        <v>78568.940977999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.824706</v>
+        <v>21.824705999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>980.215000</v>
+        <v>980.21500000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.829600</v>
+        <v>-79.829599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>78579.373795</v>
+        <v>78579.373795000007</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.827604</v>
+        <v>21.827604000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.352000</v>
+        <v>988.35199999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.168300</v>
+        <v>-91.168300000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>78590.505508</v>
+        <v>78590.505508000002</v>
       </c>
       <c r="AU17" s="1">
         <v>21.830696</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.252000</v>
+        <v>998.25199999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.548000</v>
+        <v>-108.548</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>78601.961605</v>
+        <v>78601.961605000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.833878</v>
+        <v>21.833877999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.057000</v>
+        <v>-124.057</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>78612.969357</v>
+        <v>78612.969356999994</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.836936</v>
+        <v>21.836936000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.256000</v>
+        <v>-195.256</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>78623.887752</v>
+        <v>78623.887751999995</v>
       </c>
       <c r="BJ17" s="1">
         <v>21.839969</v>
       </c>
       <c r="BK17" s="1">
-        <v>1112.270000</v>
+        <v>1112.27</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.376000</v>
+        <v>-310.37599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>78634.351354</v>
+        <v>78634.351353999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.842875</v>
+        <v>21.842874999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1220.960000</v>
+        <v>1220.96</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.608000</v>
+        <v>-490.608</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>78645.334300</v>
+        <v>78645.334300000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.845926</v>
+        <v>21.845925999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1342.820000</v>
+        <v>1342.82</v>
       </c>
       <c r="BV17" s="1">
-        <v>-686.896000</v>
+        <v>-686.89599999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>78656.105390</v>
+        <v>78656.105389999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.848918</v>
+        <v>21.848918000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1477.620000</v>
+        <v>1477.62</v>
       </c>
       <c r="CA17" s="1">
-        <v>-895.476000</v>
+        <v>-895.476</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>78669.006829</v>
+        <v>78669.006829000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.852502</v>
+        <v>21.852502000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.650000</v>
+        <v>1827.65</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1389.020000</v>
+        <v>-1389.02</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>78496.192720</v>
+        <v>78496.192720000006</v>
       </c>
       <c r="B18" s="1">
-        <v>21.804498</v>
+        <v>21.804497999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>903.908000</v>
+        <v>903.90800000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.786000</v>
+        <v>-198.786</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>78506.951444</v>
+        <v>78506.951444000006</v>
       </c>
       <c r="G18" s="1">
-        <v>21.807487</v>
+        <v>21.807486999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>922.121000</v>
+        <v>922.12099999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.023000</v>
+        <v>-169.023</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>78517.453764</v>
+        <v>78517.453764000005</v>
       </c>
       <c r="L18" s="1">
-        <v>21.810404</v>
+        <v>21.810403999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>946.139000</v>
+        <v>946.13900000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.932000</v>
+        <v>-120.932</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>78527.716951</v>
+        <v>78527.716950999995</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.813255</v>
+        <v>21.813255000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>953.351000</v>
+        <v>953.351</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.642000</v>
+        <v>-104.642</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>78538.203402</v>
+        <v>78538.203401999999</v>
       </c>
       <c r="V18" s="1">
-        <v>21.816168</v>
+        <v>21.816168000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>960.228000</v>
+        <v>960.22799999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.614400</v>
+        <v>-89.614400000000003</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>78548.341629</v>
+        <v>78548.341629000002</v>
       </c>
       <c r="AA18" s="1">
         <v>21.818984</v>
       </c>
       <c r="AB18" s="1">
-        <v>967.892000</v>
+        <v>967.89200000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.775200</v>
+        <v>-77.775199999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>78558.750638</v>
+        <v>78558.750637999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.821875</v>
+        <v>21.821874999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>972.947000</v>
+        <v>972.947</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.500600</v>
+        <v>-75.500600000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>78569.295118</v>
+        <v>78569.295117999995</v>
       </c>
       <c r="AK18" s="1">
         <v>21.824804</v>
       </c>
       <c r="AL18" s="1">
-        <v>980.207000</v>
+        <v>980.20699999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.842900</v>
+        <v>-79.8429</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>78579.797874</v>
+        <v>78579.797873999996</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.827722</v>
+        <v>21.827722000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.348000</v>
+        <v>988.34799999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.172800</v>
+        <v>-91.172799999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>78591.233172</v>
+        <v>78591.233171999993</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.830898</v>
+        <v>21.830898000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.243000</v>
+        <v>998.24300000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.569000</v>
+        <v>-108.569</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>78602.252756</v>
+        <v>78602.252756000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>21.833959</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.034000</v>
+        <v>-124.03400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>78613.332422</v>
+        <v>78613.332422000007</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.837037</v>
+        <v>21.837036999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.255000</v>
+        <v>-195.255</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>78624.262730</v>
+        <v>78624.262730000002</v>
       </c>
       <c r="BJ18" s="1">
         <v>21.840073</v>
       </c>
       <c r="BK18" s="1">
-        <v>1112.300000</v>
+        <v>1112.3</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.365000</v>
+        <v>-310.36500000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>78634.747178</v>
+        <v>78634.747178000005</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.842985</v>
+        <v>21.842984999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1220.950000</v>
+        <v>1220.95</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.598000</v>
+        <v>-490.59800000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>78645.762843</v>
+        <v>78645.762843000004</v>
       </c>
       <c r="BT18" s="1">
         <v>21.846045</v>
       </c>
       <c r="BU18" s="1">
-        <v>1342.790000</v>
+        <v>1342.79</v>
       </c>
       <c r="BV18" s="1">
-        <v>-686.773000</v>
+        <v>-686.77300000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>78656.544845</v>
+        <v>78656.544844999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.849040</v>
+        <v>21.849039999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1477.680000</v>
+        <v>1477.68</v>
       </c>
       <c r="CA18" s="1">
-        <v>-895.419000</v>
+        <v>-895.41899999999998</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>78669.524188</v>
+        <v>78669.524187999996</v>
       </c>
       <c r="CD18" s="1">
         <v>21.852646</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.340000</v>
+        <v>1827.34</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1388.710000</v>
+        <v>-1388.71</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>78496.844960</v>
+        <v>78496.844960000002</v>
       </c>
       <c r="B19" s="1">
         <v>21.804679</v>
       </c>
       <c r="C19" s="1">
-        <v>903.741000</v>
+        <v>903.74099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.733000</v>
+        <v>-198.733</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>78507.324930</v>
+        <v>78507.324930000002</v>
       </c>
       <c r="G19" s="1">
-        <v>21.807590</v>
+        <v>21.807590000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>921.637000</v>
+        <v>921.63699999999994</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.825000</v>
+        <v>-168.82499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>78517.828213</v>
+        <v>78517.828213000001</v>
       </c>
       <c r="L19" s="1">
-        <v>21.810508</v>
+        <v>21.810507999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>946.188000</v>
+        <v>946.18799999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.799000</v>
+        <v>-120.79900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>78528.066134</v>
+        <v>78528.066133999993</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.813352</v>
+        <v>21.813351999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>953.290000</v>
+        <v>953.29</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.614000</v>
+        <v>-104.614</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>78538.548584</v>
+        <v>78538.548584000004</v>
       </c>
       <c r="V19" s="1">
-        <v>21.816263</v>
+        <v>21.816262999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>960.394000</v>
+        <v>960.39400000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.574200</v>
+        <v>-89.574200000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>78548.690284</v>
+        <v>78548.690283999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.819081</v>
+        <v>21.819081000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>967.883000</v>
+        <v>967.88300000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.775800</v>
+        <v>-77.775800000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>78559.171741</v>
+        <v>78559.171740999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.821992</v>
+        <v>21.821992000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>972.827000</v>
+        <v>972.827</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.401200</v>
+        <v>-75.401200000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>78569.717716</v>
+        <v>78569.717715999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.824922</v>
+        <v>21.824922000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>980.218000</v>
+        <v>980.21799999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.842700</v>
+        <v>-79.842699999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>78580.094978</v>
+        <v>78580.094977999994</v>
       </c>
       <c r="AP19" s="1">
         <v>21.827804</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.360000</v>
+        <v>988.36</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.176600</v>
+        <v>-91.176599999999993</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>78591.628450</v>
+        <v>78591.628450000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.831008</v>
+        <v>21.831008000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.226000</v>
+        <v>998.226</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.556000</v>
+        <v>-108.556</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>78602.610868</v>
+        <v>78602.610868000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.834059</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.510000</v>
+        <v>1006.51</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.045000</v>
+        <v>-124.045</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>78613.691990</v>
+        <v>78613.691990000007</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.837137</v>
+        <v>21.837136999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.267000</v>
+        <v>-195.267</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>78624.878759</v>
+        <v>78624.878758999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.840244</v>
+        <v>21.840243999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1112.290000</v>
+        <v>1112.29</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.386000</v>
+        <v>-310.38600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>78635.180169</v>
+        <v>78635.180168999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.843106</v>
+        <v>21.843105999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1220.970000</v>
+        <v>1220.97</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.583000</v>
+        <v>-490.58300000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>78646.192385</v>
+        <v>78646.192385000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.846165</v>
+        <v>21.846164999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1342.750000</v>
+        <v>1342.75</v>
       </c>
       <c r="BV19" s="1">
-        <v>-686.780000</v>
+        <v>-686.78</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>78656.973389</v>
+        <v>78656.973389000006</v>
       </c>
       <c r="BY19" s="1">
         <v>21.849159</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1477.730000</v>
+        <v>1477.73</v>
       </c>
       <c r="CA19" s="1">
-        <v>-895.447000</v>
+        <v>-895.447</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>78670.078187</v>
+        <v>78670.078187000006</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.852799</v>
+        <v>21.852799000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.020000</v>
+        <v>1828.02</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1388.080000</v>
+        <v>-1388.08</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>78497.216959</v>
+        <v>78497.216958999998</v>
       </c>
       <c r="B20" s="1">
-        <v>21.804782</v>
+        <v>21.804781999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>903.919000</v>
+        <v>903.91899999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.808000</v>
+        <v>-198.80799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>78507.671138</v>
+        <v>78507.671138000005</v>
       </c>
       <c r="G20" s="1">
         <v>21.807686</v>
       </c>
       <c r="H20" s="1">
-        <v>922.145000</v>
+        <v>922.14499999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.958000</v>
+        <v>-168.958</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>78518.174916</v>
+        <v>78518.174916000004</v>
       </c>
       <c r="L20" s="1">
-        <v>21.810604</v>
+        <v>21.810604000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>946.166000</v>
+        <v>946.16600000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.823000</v>
+        <v>-120.82299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>78528.413838</v>
+        <v>78528.413837999993</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.813448</v>
+        <v>21.813448000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>953.338000</v>
+        <v>953.33799999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.625000</v>
+        <v>-104.625</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>78538.902234</v>
+        <v>78538.902233999994</v>
       </c>
       <c r="V20" s="1">
-        <v>21.816362</v>
+        <v>21.816362000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>960.409000</v>
+        <v>960.40899999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.593300</v>
+        <v>-89.593299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>78549.116875</v>
+        <v>78549.116875000007</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.819199</v>
+        <v>21.819199000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>967.954000</v>
+        <v>967.95399999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.765800</v>
+        <v>-77.765799999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>78559.466863</v>
+        <v>78559.466862999994</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.822074</v>
+        <v>21.822074000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>972.823000</v>
+        <v>972.82299999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.525400</v>
+        <v>-75.525400000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>78569.987999</v>
+        <v>78569.987999000004</v>
       </c>
       <c r="AK20" s="1">
         <v>21.824997</v>
       </c>
       <c r="AL20" s="1">
-        <v>980.185000</v>
+        <v>980.18499999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.841300</v>
+        <v>-79.841300000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>78580.456561</v>
+        <v>78580.456560999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.827905</v>
+        <v>21.827905000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.362000</v>
+        <v>988.36199999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.186200</v>
+        <v>-91.186199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>78591.991522</v>
+        <v>78591.991521999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.831109</v>
+        <v>21.831109000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.222000</v>
+        <v>998.22199999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.558000</v>
+        <v>-108.55800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>78602.971956</v>
+        <v>78602.971955999994</v>
       </c>
       <c r="AZ20" s="1">
         <v>21.834159</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.046000</v>
+        <v>-124.04600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>78614.414165</v>
+        <v>78614.414164999995</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.837337</v>
+        <v>21.837337000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1045.280000</v>
+        <v>1045.28</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.259000</v>
+        <v>-195.25899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>78625.047894</v>
+        <v>78625.047894000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.840291</v>
+        <v>21.840291000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1112.290000</v>
+        <v>1112.29</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.376000</v>
+        <v>-310.37599999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>78635.563609</v>
+        <v>78635.563609000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.843212</v>
+        <v>21.843212000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1220.950000</v>
+        <v>1220.95</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.583000</v>
+        <v>-490.58300000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>78646.604709</v>
+        <v>78646.604709000007</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.846279</v>
+        <v>21.846278999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1342.700000</v>
+        <v>1342.7</v>
       </c>
       <c r="BV20" s="1">
-        <v>-686.793000</v>
+        <v>-686.79300000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>78657.394492</v>
+        <v>78657.394492000007</v>
       </c>
       <c r="BY20" s="1">
         <v>21.849276</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1477.820000</v>
+        <v>1477.82</v>
       </c>
       <c r="CA20" s="1">
-        <v>-895.559000</v>
+        <v>-895.55899999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>78670.927338</v>
+        <v>78670.927337999994</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.853035</v>
+        <v>21.853034999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.650000</v>
+        <v>1827.65</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1389.160000</v>
+        <v>-1389.16</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>78497.559230</v>
+        <v>78497.559229999999</v>
       </c>
       <c r="B21" s="1">
-        <v>21.804878</v>
+        <v>21.804877999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>903.762000</v>
+        <v>903.76199999999994</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.680000</v>
+        <v>-198.68</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>78508.016368</v>
+        <v>78508.016367999997</v>
       </c>
       <c r="G21" s="1">
         <v>21.807782</v>
       </c>
       <c r="H21" s="1">
-        <v>921.987000</v>
+        <v>921.98699999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.150000</v>
+        <v>-169.15</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>78518.513187</v>
+        <v>78518.513187000004</v>
       </c>
       <c r="L21" s="1">
-        <v>21.810698</v>
+        <v>21.810697999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>946.147000</v>
+        <v>946.14700000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.903000</v>
+        <v>-120.90300000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>78528.845846</v>
+        <v>78528.845845999997</v>
       </c>
       <c r="Q21" s="1">
         <v>21.813568</v>
       </c>
       <c r="R21" s="1">
-        <v>953.339000</v>
+        <v>953.33900000000006</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.612000</v>
+        <v>-104.61199999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>78539.347144</v>
+        <v>78539.347143999999</v>
       </c>
       <c r="V21" s="1">
         <v>21.816485</v>
       </c>
       <c r="W21" s="1">
-        <v>960.309000</v>
+        <v>960.30899999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.555300</v>
+        <v>-89.555300000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>78549.396745</v>
+        <v>78549.396745000005</v>
       </c>
       <c r="AA21" s="1">
         <v>21.819277</v>
       </c>
       <c r="AB21" s="1">
-        <v>967.834000</v>
+        <v>967.83399999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.731100</v>
+        <v>-77.731099999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>78559.812573</v>
+        <v>78559.812573000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.822170</v>
+        <v>21.82217</v>
       </c>
       <c r="AG21" s="1">
-        <v>972.901000</v>
+        <v>972.90099999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.370600</v>
+        <v>-75.370599999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>78570.349620</v>
+        <v>78570.349619999994</v>
       </c>
       <c r="AK21" s="1">
         <v>21.825097</v>
       </c>
       <c r="AL21" s="1">
-        <v>980.206000</v>
+        <v>980.20600000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.831300</v>
+        <v>-79.831299999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>78580.814673</v>
+        <v>78580.814673000001</v>
       </c>
       <c r="AP21" s="1">
         <v>21.828004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.363000</v>
+        <v>988.36300000000006</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.152400</v>
+        <v>-91.1524</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>78592.718161</v>
+        <v>78592.718160999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.831311</v>
+        <v>21.831310999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.222000</v>
+        <v>998.22199999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.554000</v>
+        <v>-108.554</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>78603.692644</v>
+        <v>78603.692643999995</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.834359</v>
+        <v>21.834358999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.053000</v>
+        <v>-124.053</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>78614.777732</v>
+        <v>78614.777732000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.837438</v>
+        <v>21.837437999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1045.250000</v>
+        <v>1045.25</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.266000</v>
+        <v>-195.26599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>78625.425382</v>
+        <v>78625.425382000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.840396</v>
+        <v>21.840395999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1112.260000</v>
+        <v>1112.26</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.363000</v>
+        <v>-310.363</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>78635.982201</v>
+        <v>78635.982201000006</v>
       </c>
       <c r="BO21" s="1">
         <v>21.843328</v>
       </c>
       <c r="BP21" s="1">
-        <v>1220.950000</v>
+        <v>1220.95</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.569000</v>
+        <v>-490.56900000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>78647.344059</v>
+        <v>78647.344058999995</v>
       </c>
       <c r="BT21" s="1">
         <v>21.846484</v>
       </c>
       <c r="BU21" s="1">
-        <v>1342.650000</v>
+        <v>1342.65</v>
       </c>
       <c r="BV21" s="1">
-        <v>-686.815000</v>
+        <v>-686.81500000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>78658.210411</v>
+        <v>78658.210410999993</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.849503</v>
+        <v>21.849502999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1477.620000</v>
+        <v>1477.62</v>
       </c>
       <c r="CA21" s="1">
-        <v>-895.434000</v>
+        <v>-895.43399999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>78671.156986</v>
+        <v>78671.156986000002</v>
       </c>
       <c r="CD21" s="1">
         <v>21.853099</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.750000</v>
+        <v>1828.75</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1389.190000</v>
+        <v>-1389.19</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>78497.899982</v>
+        <v>78497.899982000003</v>
       </c>
       <c r="B22" s="1">
-        <v>21.804972</v>
+        <v>21.804971999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>903.735000</v>
+        <v>903.73500000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.862000</v>
+        <v>-198.86199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>78508.440433</v>
+        <v>78508.440432999996</v>
       </c>
       <c r="G22" s="1">
-        <v>21.807900</v>
+        <v>21.8079</v>
       </c>
       <c r="H22" s="1">
-        <v>921.734000</v>
+        <v>921.73400000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.008000</v>
+        <v>-169.00800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>78518.945204</v>
+        <v>78518.945204000003</v>
       </c>
       <c r="L22" s="1">
-        <v>21.810818</v>
+        <v>21.810818000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>946.011000</v>
+        <v>946.01099999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.666000</v>
+        <v>-120.666</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>78529.124598</v>
+        <v>78529.124597999995</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.813646</v>
+        <v>21.813645999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>953.350000</v>
+        <v>953.35</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.615000</v>
+        <v>-104.61499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>78539.601127</v>
+        <v>78539.601127000002</v>
       </c>
       <c r="V22" s="1">
-        <v>21.816556</v>
+        <v>21.816555999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>960.286000</v>
+        <v>960.28599999999994</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.451200</v>
+        <v>-89.4512</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>78549.743290</v>
+        <v>78549.743289999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.819373</v>
+        <v>21.819372999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>967.949000</v>
+        <v>967.94899999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.725900</v>
+        <v>-77.725899999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>78560.154812</v>
+        <v>78560.154811999993</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.822265</v>
+        <v>21.822265000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>972.814000</v>
+        <v>972.81399999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.416700</v>
+        <v>-75.416700000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>78570.700752</v>
+        <v>78570.700752000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.825195</v>
+        <v>21.825195000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>980.200000</v>
+        <v>980.2</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.845200</v>
+        <v>-79.845200000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>78581.533872</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.828204</v>
+        <v>21.828203999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.368000</v>
+        <v>988.36800000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.160500</v>
+        <v>-91.160499999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>78593.111522</v>
+        <v>78593.111522000007</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.831420</v>
+        <v>21.831420000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.228000</v>
+        <v>998.22799999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.555000</v>
+        <v>-108.55500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>78604.067122</v>
+        <v>78604.067121999993</v>
       </c>
       <c r="AZ22" s="1">
         <v>21.834463</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.041000</v>
+        <v>-124.041</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>78615.137827</v>
+        <v>78615.137826999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.837538</v>
+        <v>21.837537999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1045.260000</v>
+        <v>1045.26</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.257000</v>
+        <v>-195.25700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>78626.117269</v>
+        <v>78626.117268999995</v>
       </c>
       <c r="BJ22" s="1">
         <v>21.840588</v>
       </c>
       <c r="BK22" s="1">
-        <v>1112.270000</v>
+        <v>1112.27</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.369000</v>
+        <v>-310.36900000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>78636.689505</v>
+        <v>78636.689505000002</v>
       </c>
       <c r="BO22" s="1">
         <v>21.843525</v>
       </c>
       <c r="BP22" s="1">
-        <v>1220.980000</v>
+        <v>1220.98</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.608000</v>
+        <v>-490.608</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>78647.460159</v>
+        <v>78647.460158999995</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.846517</v>
+        <v>21.846516999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1342.610000</v>
+        <v>1342.61</v>
       </c>
       <c r="BV22" s="1">
-        <v>-686.760000</v>
+        <v>-686.76</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>78658.710378</v>
+        <v>78658.710378000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.849642</v>
+        <v>21.849641999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1477.640000</v>
+        <v>1477.64</v>
       </c>
       <c r="CA22" s="1">
-        <v>-895.471000</v>
+        <v>-895.471</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>78671.693193</v>
+        <v>78671.693192999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.853248</v>
+        <v>21.853248000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.090000</v>
+        <v>1828.09</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1387.950000</v>
+        <v>-1387.95</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>78498.322079</v>
+        <v>78498.322079000005</v>
       </c>
       <c r="B23" s="1">
-        <v>21.805089</v>
+        <v>21.805088999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>903.894000</v>
+        <v>903.89400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.745000</v>
+        <v>-198.745</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>78508.708780</v>
+        <v>78508.708780000001</v>
       </c>
       <c r="G23" s="1">
-        <v>21.807975</v>
+        <v>21.807974999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>921.912000</v>
+        <v>921.91200000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.358000</v>
+        <v>-169.358</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>78519.226450</v>
+        <v>78519.226450000002</v>
       </c>
       <c r="L23" s="1">
         <v>21.810896</v>
       </c>
       <c r="M23" s="1">
-        <v>946.165000</v>
+        <v>946.16499999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.834000</v>
+        <v>-120.834</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>78529.473781</v>
+        <v>78529.473780999993</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.813743</v>
+        <v>21.813742999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>953.334000</v>
+        <v>953.33399999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.638000</v>
+        <v>-104.63800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>78539.945320</v>
+        <v>78539.945319999999</v>
       </c>
       <c r="V23" s="1">
         <v>21.816651</v>
       </c>
       <c r="W23" s="1">
-        <v>960.345000</v>
+        <v>960.34500000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.551400</v>
+        <v>-89.551400000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>78550.092010</v>
+        <v>78550.092009999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.819470</v>
+        <v>21.819469999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>967.867000</v>
+        <v>967.86699999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.780200</v>
+        <v>-77.780199999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>78560.837803</v>
+        <v>78560.837803000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.822455</v>
+        <v>21.822455000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>972.762000</v>
+        <v>972.76199999999994</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.565900</v>
+        <v>-75.565899999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>78571.397661</v>
+        <v>78571.397660999995</v>
       </c>
       <c r="AK23" s="1">
         <v>21.825388</v>
       </c>
       <c r="AL23" s="1">
-        <v>980.214000</v>
+        <v>980.21400000000006</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.861500</v>
+        <v>-79.861500000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>78581.922272</v>
+        <v>78581.922271999996</v>
       </c>
       <c r="AP23" s="1">
         <v>21.828312</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.378000</v>
+        <v>988.37800000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.152900</v>
+        <v>-91.152900000000002</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>78593.477040</v>
+        <v>78593.477039999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.831521</v>
+        <v>21.831520999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.229000</v>
+        <v>998.22900000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.560000</v>
+        <v>-108.56</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>78604.457970</v>
+        <v>78604.457970000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.834572</v>
+        <v>21.834572000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.520000</v>
+        <v>1006.52</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.041000</v>
+        <v>-124.041</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>78615.816355</v>
+        <v>78615.816355000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.837727</v>
+        <v>21.837727000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1045.240000</v>
+        <v>1045.24</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.268000</v>
+        <v>-195.268</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>78626.579044</v>
+        <v>78626.579043999998</v>
       </c>
       <c r="BJ23" s="1">
         <v>21.840716</v>
       </c>
       <c r="BK23" s="1">
-        <v>1112.260000</v>
+        <v>1112.26</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.379000</v>
+        <v>-310.37900000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>78636.803575</v>
+        <v>78636.803574999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.843557</v>
+        <v>21.843557000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1220.960000</v>
+        <v>1220.96</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.596000</v>
+        <v>-490.596</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>78647.898616</v>
+        <v>78647.898616000006</v>
       </c>
       <c r="BT23" s="1">
         <v>21.846639</v>
       </c>
       <c r="BU23" s="1">
-        <v>1342.600000</v>
+        <v>1342.6</v>
       </c>
       <c r="BV23" s="1">
-        <v>-686.778000</v>
+        <v>-686.77800000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>78659.143881</v>
+        <v>78659.143880999996</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.849762</v>
+        <v>21.849761999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1477.720000</v>
+        <v>1477.72</v>
       </c>
       <c r="CA23" s="1">
-        <v>-895.502000</v>
+        <v>-895.50199999999995</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>78672.233801</v>
+        <v>78672.233800999995</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.853398</v>
+        <v>21.853397999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1827.810000</v>
+        <v>1827.81</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1389.530000</v>
+        <v>-1389.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>78498.600312</v>
+        <v>78498.600311999995</v>
       </c>
       <c r="B24" s="1">
-        <v>21.805167</v>
+        <v>21.805167000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>903.637000</v>
+        <v>903.63699999999994</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.729000</v>
+        <v>-198.72900000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>78509.055009</v>
+        <v>78509.055009000003</v>
       </c>
       <c r="G24" s="1">
-        <v>21.808071</v>
+        <v>21.808071000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>921.956000</v>
+        <v>921.95600000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.804000</v>
+        <v>-168.804</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>78519.571186</v>
+        <v>78519.571186000001</v>
       </c>
       <c r="L24" s="1">
-        <v>21.810992</v>
+        <v>21.810991999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>946.293000</v>
+        <v>946.29300000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.828000</v>
+        <v>-120.828</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>78529.821512</v>
+        <v>78529.821511999995</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.813839</v>
+        <v>21.813839000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>953.311000</v>
+        <v>953.31100000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.679000</v>
+        <v>-104.679</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>78540.487942</v>
+        <v>78540.487942000007</v>
       </c>
       <c r="V24" s="1">
-        <v>21.816802</v>
+        <v>21.816801999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>960.219000</v>
+        <v>960.21900000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.477100</v>
+        <v>-89.477099999999993</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>78550.789385</v>
+        <v>78550.789384999996</v>
       </c>
       <c r="AA24" s="1">
         <v>21.819664</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.933000</v>
+        <v>967.93299999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.791300</v>
+        <v>-77.791300000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>78561.184011</v>
+        <v>78561.184011000005</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.822551</v>
+        <v>21.822551000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>972.850000</v>
+        <v>972.85</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.385800</v>
+        <v>-75.385800000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>78571.746813</v>
+        <v>78571.746813000005</v>
       </c>
       <c r="AK24" s="1">
         <v>21.825485</v>
       </c>
       <c r="AL24" s="1">
-        <v>980.200000</v>
+        <v>980.2</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.840500</v>
+        <v>-79.840500000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>78582.286303</v>
+        <v>78582.286303000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.828413</v>
+        <v>21.828413000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.364000</v>
+        <v>988.36400000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.156500</v>
+        <v>-91.156499999999994</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>78594.154113</v>
+        <v>78594.154112999997</v>
       </c>
       <c r="AU24" s="1">
         <v>21.831709</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.222000</v>
+        <v>998.22199999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.562000</v>
+        <v>-108.562</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>78605.132529</v>
+        <v>78605.132528999995</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.834759</v>
+        <v>21.834758999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.058000</v>
+        <v>-124.05800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>78616.249858</v>
+        <v>78616.249857999996</v>
       </c>
       <c r="BE24" s="1">
         <v>21.837847</v>
       </c>
       <c r="BF24" s="1">
-        <v>1045.260000</v>
+        <v>1045.26</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.266000</v>
+        <v>-195.26599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>78626.956006</v>
+        <v>78626.956005999993</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.840821</v>
+        <v>21.840820999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1112.280000</v>
+        <v>1112.28</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.375000</v>
+        <v>-310.375</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>78637.225174</v>
+        <v>78637.225174000007</v>
       </c>
       <c r="BO24" s="1">
         <v>21.843674</v>
       </c>
       <c r="BP24" s="1">
-        <v>1220.990000</v>
+        <v>1220.99</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.558000</v>
+        <v>-490.55799999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>78648.309768</v>
+        <v>78648.309768000006</v>
       </c>
       <c r="BT24" s="1">
         <v>21.846753</v>
       </c>
       <c r="BU24" s="1">
-        <v>1342.530000</v>
+        <v>1342.53</v>
       </c>
       <c r="BV24" s="1">
-        <v>-686.792000</v>
+        <v>-686.79200000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>78659.576403</v>
+        <v>78659.576402999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.849882</v>
+        <v>21.849882000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1477.600000</v>
+        <v>1477.6</v>
       </c>
       <c r="CA24" s="1">
-        <v>-895.507000</v>
+        <v>-895.50699999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>78672.773945</v>
+        <v>78672.773944999994</v>
       </c>
       <c r="CD24" s="1">
         <v>21.853548</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.890000</v>
+        <v>1828.89</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1388.460000</v>
+        <v>-1388.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>78498.942541</v>
+        <v>78498.942540999997</v>
       </c>
       <c r="B25" s="1">
-        <v>21.805262</v>
+        <v>21.805261999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>903.682000</v>
+        <v>903.68200000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.826000</v>
+        <v>-198.82599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>78509.398208</v>
+        <v>78509.398207999999</v>
       </c>
       <c r="G25" s="1">
         <v>21.808166</v>
       </c>
       <c r="H25" s="1">
-        <v>921.570000</v>
+        <v>921.57</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.987000</v>
+        <v>-168.98699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>78519.918881</v>
+        <v>78519.918881000005</v>
       </c>
       <c r="L25" s="1">
-        <v>21.811089</v>
+        <v>21.811088999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>946.270000</v>
+        <v>946.27</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.821000</v>
+        <v>-120.821</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>78530.520868</v>
+        <v>78530.520868000007</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.814034</v>
+        <v>21.814033999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>953.311000</v>
+        <v>953.31100000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.609000</v>
+        <v>-104.60899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>78540.633766</v>
+        <v>78540.633765999999</v>
       </c>
       <c r="V25" s="1">
-        <v>21.816843</v>
+        <v>21.816842999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>960.281000</v>
+        <v>960.28099999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.674400</v>
+        <v>-89.674400000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>78551.138569</v>
+        <v>78551.138569000002</v>
       </c>
       <c r="AA25" s="1">
         <v>21.819761</v>
       </c>
       <c r="AB25" s="1">
-        <v>967.950000</v>
+        <v>967.95</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.792700</v>
+        <v>-77.792699999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>78561.530715</v>
+        <v>78561.530715000001</v>
       </c>
       <c r="AF25" s="1">
         <v>21.822647</v>
       </c>
       <c r="AG25" s="1">
-        <v>972.769000</v>
+        <v>972.76900000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.467500</v>
+        <v>-75.467500000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>78572.100461</v>
+        <v>78572.100460999995</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.825583</v>
+        <v>21.825583000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>980.210000</v>
+        <v>980.21</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.834700</v>
+        <v>-79.834699999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>78582.953918</v>
+        <v>78582.953917999999</v>
       </c>
       <c r="AP25" s="1">
         <v>21.828598</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.366000</v>
+        <v>988.36599999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.164700</v>
+        <v>-91.164699999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>78594.607918</v>
+        <v>78594.607917999994</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.831836</v>
+        <v>21.831835999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.237000</v>
+        <v>998.23699999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.555000</v>
+        <v>-108.55500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>78605.533792</v>
+        <v>78605.533792000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.834870</v>
+        <v>21.834869999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.053000</v>
+        <v>-124.053</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>78616.611442</v>
+        <v>78616.611441999994</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.837948</v>
+        <v>21.837948000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1045.260000</v>
+        <v>1045.26</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.253000</v>
+        <v>-195.25299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>78627.359747</v>
+        <v>78627.359746999995</v>
       </c>
       <c r="BJ25" s="1">
         <v>21.840933</v>
       </c>
       <c r="BK25" s="1">
-        <v>1112.250000</v>
+        <v>1112.25</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.375000</v>
+        <v>-310.375</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>78637.623462</v>
+        <v>78637.623462000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.843784</v>
+        <v>21.843783999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1220.920000</v>
+        <v>1220.92</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.601000</v>
+        <v>-490.601</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>78648.741797</v>
+        <v>78648.741796999995</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.846873</v>
+        <v>21.846872999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1342.500000</v>
+        <v>1342.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-686.705000</v>
+        <v>-686.70500000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>78659.985593</v>
+        <v>78659.985593000005</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.849996</v>
+        <v>21.849996000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1477.700000</v>
+        <v>1477.7</v>
       </c>
       <c r="CA25" s="1">
-        <v>-895.530000</v>
+        <v>-895.53</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>78673.312102</v>
+        <v>78673.312101999996</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.853698</v>
+        <v>21.853698000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1827.310000</v>
+        <v>1827.31</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1388.880000</v>
+        <v>-1388.88</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>78499.285309</v>
+        <v>78499.285308999999</v>
       </c>
       <c r="B26" s="1">
-        <v>21.805357</v>
+        <v>21.805357000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>903.694000</v>
+        <v>903.69399999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.808000</v>
+        <v>-198.80799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>78510.086160</v>
+        <v>78510.086160000006</v>
       </c>
       <c r="G26" s="1">
-        <v>21.808357</v>
+        <v>21.808357000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>921.958000</v>
+        <v>921.95799999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.281000</v>
+        <v>-169.28100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>78520.614240</v>
+        <v>78520.614239999995</v>
       </c>
       <c r="L26" s="1">
-        <v>21.811282</v>
+        <v>21.811281999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>946.078000</v>
+        <v>946.07799999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.772000</v>
+        <v>-120.77200000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>78530.866052</v>
+        <v>78530.866051999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.814129</v>
+        <v>21.814129000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>953.321000</v>
+        <v>953.32100000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.664000</v>
+        <v>-104.664</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>78540.974550</v>
+        <v>78540.974549999999</v>
       </c>
       <c r="V26" s="1">
-        <v>21.816937</v>
+        <v>21.816936999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>960.340000</v>
+        <v>960.34</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.633800</v>
+        <v>-89.633799999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>78551.487720</v>
+        <v>78551.487720000005</v>
       </c>
       <c r="AA26" s="1">
         <v>21.819858</v>
       </c>
       <c r="AB26" s="1">
-        <v>967.887000</v>
+        <v>967.88699999999994</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.785000</v>
+        <v>-77.784999999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>78562.194858</v>
+        <v>78562.194858000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.822832</v>
+        <v>21.822831999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>972.726000</v>
+        <v>972.726</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.412000</v>
+        <v>-75.412000000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>78572.770060</v>
+        <v>78572.770059999995</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.825769</v>
+        <v>21.825769000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>980.179000</v>
+        <v>980.17899999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.855100</v>
+        <v>-79.855099999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>78583.390430</v>
+        <v>78583.390429999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.828720</v>
+        <v>21.828720000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.360000</v>
+        <v>988.36</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.153300</v>
+        <v>-91.153300000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>78594.969007</v>
+        <v>78594.969007000007</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.831936</v>
+        <v>21.831935999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.228000</v>
+        <v>998.22799999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.561000</v>
+        <v>-108.56100000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>78605.922161</v>
+        <v>78605.922160999995</v>
       </c>
       <c r="AZ26" s="1">
         <v>21.834978</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.500000</v>
+        <v>1006.5</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.046000</v>
+        <v>-124.04600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>78616.972042</v>
+        <v>78616.972041999994</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.838048</v>
+        <v>21.838048000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1045.270000</v>
+        <v>1045.27</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.263000</v>
+        <v>-195.26300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>78627.796723</v>
+        <v>78627.796723000007</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.841055</v>
+        <v>21.841055000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1112.310000</v>
+        <v>1112.31</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.388000</v>
+        <v>-310.38799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>78638.048038</v>
+        <v>78638.048037999994</v>
       </c>
       <c r="BO26" s="1">
         <v>21.843902</v>
       </c>
       <c r="BP26" s="1">
-        <v>1220.950000</v>
+        <v>1220.95</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.605000</v>
+        <v>-490.60500000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>78649.170337</v>
+        <v>78649.170337000003</v>
       </c>
       <c r="BT26" s="1">
         <v>21.846992</v>
       </c>
       <c r="BU26" s="1">
-        <v>1342.410000</v>
+        <v>1342.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-686.776000</v>
+        <v>-686.77599999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>78660.413671</v>
+        <v>78660.413671000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.850115</v>
+        <v>21.850114999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1477.770000</v>
+        <v>1477.77</v>
       </c>
       <c r="CA26" s="1">
-        <v>-895.599000</v>
+        <v>-895.59900000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>78673.851254</v>
+        <v>78673.851253999994</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.853848</v>
+        <v>21.853847999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1828.650000</v>
+        <v>1828.65</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1389.280000</v>
+        <v>-1389.28</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>